--- a/dataset_project2_new.xlsx
+++ b/dataset_project2_new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\S1 SAINS DATA\FILE PROJECT 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\literasi-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E005CF2-4202-4B53-A661-1D1364019318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049D3827-10AD-4502-B221-CA819D15072F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{159E56AA-47C3-4E5E-B7CA-F795E0A3D3D7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>nama_kabupaten_kota</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>indeks_masyarakat_digital_indonesia</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
@@ -522,7 +528,7 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,6 +556,12 @@
       <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="I1" s="3"/>
       <c r="M1" s="3"/>
     </row>
@@ -569,6 +581,12 @@
       <c r="E2" s="6">
         <v>2022</v>
       </c>
+      <c r="F2" s="5">
+        <v>-6.5453254999999997</v>
+      </c>
+      <c r="G2" s="5">
+        <v>107.00174246832201</v>
+      </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -587,6 +605,12 @@
       <c r="E3" s="6">
         <v>2022</v>
       </c>
+      <c r="F3" s="5">
+        <v>-7.0764508500000014</v>
+      </c>
+      <c r="G3" s="5">
+        <v>106.7346608475648</v>
+      </c>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -605,6 +629,12 @@
       <c r="E4" s="6">
         <v>2022</v>
       </c>
+      <c r="F4" s="5">
+        <v>-7.0542441</v>
+      </c>
+      <c r="G4" s="5">
+        <v>107.0691427606796</v>
+      </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -623,6 +653,12 @@
       <c r="E5" s="6">
         <v>2022</v>
       </c>
+      <c r="F5" s="5">
+        <v>-7.0613423500000003</v>
+      </c>
+      <c r="G5" s="5">
+        <v>107.63428834299469</v>
+      </c>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -641,6 +677,12 @@
       <c r="E6" s="6">
         <v>2022</v>
       </c>
+      <c r="F6" s="5">
+        <v>-7.2162543000000001</v>
+      </c>
+      <c r="G6" s="5">
+        <v>107.9014912</v>
+      </c>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -659,6 +701,12 @@
       <c r="E7" s="6">
         <v>2022</v>
       </c>
+      <c r="F7" s="5">
+        <v>-7.4271707500000002</v>
+      </c>
+      <c r="G7" s="5">
+        <v>108.0684230870218</v>
+      </c>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -677,6 +725,12 @@
       <c r="E8" s="6">
         <v>2022</v>
       </c>
+      <c r="F8" s="5">
+        <v>-7.3131593000000006</v>
+      </c>
+      <c r="G8" s="5">
+        <v>108.40489379583821</v>
+      </c>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -695,6 +749,12 @@
       <c r="E9" s="6">
         <v>2022</v>
       </c>
+      <c r="F9" s="5">
+        <v>-6.9869840999999999</v>
+      </c>
+      <c r="G9" s="5">
+        <v>108.55381583400739</v>
+      </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -713,6 +773,12 @@
       <c r="E10" s="6">
         <v>2022</v>
       </c>
+      <c r="F10" s="5">
+        <v>-6.7611891999999996</v>
+      </c>
+      <c r="G10" s="5">
+        <v>108.4564231965478</v>
+      </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -731,6 +797,12 @@
       <c r="E11" s="6">
         <v>2022</v>
       </c>
+      <c r="F11" s="5">
+        <v>-6.8073626999999997</v>
+      </c>
+      <c r="G11" s="5">
+        <v>108.2787860449118</v>
+      </c>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -749,6 +821,12 @@
       <c r="E12" s="6">
         <v>2022</v>
       </c>
+      <c r="F12" s="5">
+        <v>-6.8098713499999999</v>
+      </c>
+      <c r="G12" s="5">
+        <v>107.9817731591864</v>
+      </c>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -767,6 +845,12 @@
       <c r="E13" s="6">
         <v>2022</v>
       </c>
+      <c r="F13" s="5">
+        <v>-6.4418536500000014</v>
+      </c>
+      <c r="G13" s="5">
+        <v>108.1765472412883</v>
+      </c>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -785,6 +869,12 @@
       <c r="E14" s="6">
         <v>2022</v>
       </c>
+      <c r="F14" s="5">
+        <v>-6.4983887500000002</v>
+      </c>
+      <c r="G14" s="5">
+        <v>107.7395460135543</v>
+      </c>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -803,6 +893,12 @@
       <c r="E15" s="6">
         <v>2022</v>
       </c>
+      <c r="F15" s="5">
+        <v>-6.5914090999999999</v>
+      </c>
+      <c r="G15" s="5">
+        <v>107.40202787249341</v>
+      </c>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -821,6 +917,12 @@
       <c r="E16" s="6">
         <v>2022</v>
       </c>
+      <c r="F16" s="5">
+        <v>-6.3021906000000003</v>
+      </c>
+      <c r="G16" s="5">
+        <v>107.3046116</v>
+      </c>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -839,6 +941,12 @@
       <c r="E17" s="6">
         <v>2022</v>
       </c>
+      <c r="F17" s="5">
+        <v>-6.2027897000000003</v>
+      </c>
+      <c r="G17" s="5">
+        <v>107.16491614099689</v>
+      </c>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -857,6 +965,12 @@
       <c r="E18" s="6">
         <v>2022</v>
       </c>
+      <c r="F18" s="5">
+        <v>-6.8977540499999996</v>
+      </c>
+      <c r="G18" s="5">
+        <v>107.4124293645085</v>
+      </c>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -875,6 +989,12 @@
       <c r="E19" s="6">
         <v>2022</v>
       </c>
+      <c r="F19" s="5">
+        <v>-7.6407968000000004</v>
+      </c>
+      <c r="G19" s="5">
+        <v>108.55672882792381</v>
+      </c>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -893,6 +1013,12 @@
       <c r="E20" s="6">
         <v>2022</v>
       </c>
+      <c r="F20" s="5">
+        <v>-6.5962985999999999</v>
+      </c>
+      <c r="G20" s="5">
+        <v>106.79724210000001</v>
+      </c>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -911,6 +1037,12 @@
       <c r="E21" s="6">
         <v>2022</v>
       </c>
+      <c r="F21" s="5">
+        <v>-6.9199289000000004</v>
+      </c>
+      <c r="G21" s="5">
+        <v>106.92650949999999</v>
+      </c>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -929,6 +1061,12 @@
       <c r="E22" s="6">
         <v>2022</v>
       </c>
+      <c r="F22" s="5">
+        <v>-6.9215529</v>
+      </c>
+      <c r="G22" s="5">
+        <v>107.6110212</v>
+      </c>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -947,6 +1085,12 @@
       <c r="E23" s="6">
         <v>2022</v>
       </c>
+      <c r="F23" s="5">
+        <v>-6.7137044000000001</v>
+      </c>
+      <c r="G23" s="5">
+        <v>108.5608483</v>
+      </c>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -965,6 +1109,12 @@
       <c r="E24" s="6">
         <v>2022</v>
       </c>
+      <c r="F24" s="5">
+        <v>-6.2349857999999996</v>
+      </c>
+      <c r="G24" s="5">
+        <v>106.9945444</v>
+      </c>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -983,6 +1133,12 @@
       <c r="E25" s="6">
         <v>2022</v>
       </c>
+      <c r="F25" s="5">
+        <v>-6.4071899999999999</v>
+      </c>
+      <c r="G25" s="5">
+        <v>106.8158371</v>
+      </c>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1001,6 +1157,12 @@
       <c r="E26" s="6">
         <v>2022</v>
       </c>
+      <c r="F26" s="5">
+        <v>-6.8731527000000003</v>
+      </c>
+      <c r="G26" s="5">
+        <v>107.54230990000001</v>
+      </c>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1019,6 +1181,12 @@
       <c r="E27" s="6">
         <v>2022</v>
       </c>
+      <c r="F27" s="5">
+        <v>-7.3262483999999999</v>
+      </c>
+      <c r="G27" s="5">
+        <v>108.2201154</v>
+      </c>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1036,6 +1204,12 @@
       </c>
       <c r="E28" s="6">
         <v>2022</v>
+      </c>
+      <c r="F28" s="5">
+        <v>-7.3695648</v>
+      </c>
+      <c r="G28" s="5">
+        <v>108.5415225</v>
       </c>
       <c r="M28" s="1"/>
     </row>

--- a/dataset_project2_new.xlsx
+++ b/dataset_project2_new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\literasi-web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\S1 SAINS DATA\FILE PROJECT 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049D3827-10AD-4502-B221-CA819D15072F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E005CF2-4202-4B53-A661-1D1364019318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{159E56AA-47C3-4E5E-B7CA-F795E0A3D3D7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>nama_kabupaten_kota</t>
   </si>
@@ -127,12 +127,6 @@
   </si>
   <si>
     <t>indeks_masyarakat_digital_indonesia</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
   </si>
 </sst>
 </file>
@@ -528,7 +522,7 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,12 +550,6 @@
       <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="I1" s="3"/>
       <c r="M1" s="3"/>
     </row>
@@ -581,12 +569,6 @@
       <c r="E2" s="6">
         <v>2022</v>
       </c>
-      <c r="F2" s="5">
-        <v>-6.5453254999999997</v>
-      </c>
-      <c r="G2" s="5">
-        <v>107.00174246832201</v>
-      </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -605,12 +587,6 @@
       <c r="E3" s="6">
         <v>2022</v>
       </c>
-      <c r="F3" s="5">
-        <v>-7.0764508500000014</v>
-      </c>
-      <c r="G3" s="5">
-        <v>106.7346608475648</v>
-      </c>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -629,12 +605,6 @@
       <c r="E4" s="6">
         <v>2022</v>
       </c>
-      <c r="F4" s="5">
-        <v>-7.0542441</v>
-      </c>
-      <c r="G4" s="5">
-        <v>107.0691427606796</v>
-      </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -653,12 +623,6 @@
       <c r="E5" s="6">
         <v>2022</v>
       </c>
-      <c r="F5" s="5">
-        <v>-7.0613423500000003</v>
-      </c>
-      <c r="G5" s="5">
-        <v>107.63428834299469</v>
-      </c>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -677,12 +641,6 @@
       <c r="E6" s="6">
         <v>2022</v>
       </c>
-      <c r="F6" s="5">
-        <v>-7.2162543000000001</v>
-      </c>
-      <c r="G6" s="5">
-        <v>107.9014912</v>
-      </c>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -701,12 +659,6 @@
       <c r="E7" s="6">
         <v>2022</v>
       </c>
-      <c r="F7" s="5">
-        <v>-7.4271707500000002</v>
-      </c>
-      <c r="G7" s="5">
-        <v>108.0684230870218</v>
-      </c>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -725,12 +677,6 @@
       <c r="E8" s="6">
         <v>2022</v>
       </c>
-      <c r="F8" s="5">
-        <v>-7.3131593000000006</v>
-      </c>
-      <c r="G8" s="5">
-        <v>108.40489379583821</v>
-      </c>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -749,12 +695,6 @@
       <c r="E9" s="6">
         <v>2022</v>
       </c>
-      <c r="F9" s="5">
-        <v>-6.9869840999999999</v>
-      </c>
-      <c r="G9" s="5">
-        <v>108.55381583400739</v>
-      </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -773,12 +713,6 @@
       <c r="E10" s="6">
         <v>2022</v>
       </c>
-      <c r="F10" s="5">
-        <v>-6.7611891999999996</v>
-      </c>
-      <c r="G10" s="5">
-        <v>108.4564231965478</v>
-      </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -797,12 +731,6 @@
       <c r="E11" s="6">
         <v>2022</v>
       </c>
-      <c r="F11" s="5">
-        <v>-6.8073626999999997</v>
-      </c>
-      <c r="G11" s="5">
-        <v>108.2787860449118</v>
-      </c>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -821,12 +749,6 @@
       <c r="E12" s="6">
         <v>2022</v>
       </c>
-      <c r="F12" s="5">
-        <v>-6.8098713499999999</v>
-      </c>
-      <c r="G12" s="5">
-        <v>107.9817731591864</v>
-      </c>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -845,12 +767,6 @@
       <c r="E13" s="6">
         <v>2022</v>
       </c>
-      <c r="F13" s="5">
-        <v>-6.4418536500000014</v>
-      </c>
-      <c r="G13" s="5">
-        <v>108.1765472412883</v>
-      </c>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -869,12 +785,6 @@
       <c r="E14" s="6">
         <v>2022</v>
       </c>
-      <c r="F14" s="5">
-        <v>-6.4983887500000002</v>
-      </c>
-      <c r="G14" s="5">
-        <v>107.7395460135543</v>
-      </c>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -893,12 +803,6 @@
       <c r="E15" s="6">
         <v>2022</v>
       </c>
-      <c r="F15" s="5">
-        <v>-6.5914090999999999</v>
-      </c>
-      <c r="G15" s="5">
-        <v>107.40202787249341</v>
-      </c>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -917,12 +821,6 @@
       <c r="E16" s="6">
         <v>2022</v>
       </c>
-      <c r="F16" s="5">
-        <v>-6.3021906000000003</v>
-      </c>
-      <c r="G16" s="5">
-        <v>107.3046116</v>
-      </c>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -941,12 +839,6 @@
       <c r="E17" s="6">
         <v>2022</v>
       </c>
-      <c r="F17" s="5">
-        <v>-6.2027897000000003</v>
-      </c>
-      <c r="G17" s="5">
-        <v>107.16491614099689</v>
-      </c>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -965,12 +857,6 @@
       <c r="E18" s="6">
         <v>2022</v>
       </c>
-      <c r="F18" s="5">
-        <v>-6.8977540499999996</v>
-      </c>
-      <c r="G18" s="5">
-        <v>107.4124293645085</v>
-      </c>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -989,12 +875,6 @@
       <c r="E19" s="6">
         <v>2022</v>
       </c>
-      <c r="F19" s="5">
-        <v>-7.6407968000000004</v>
-      </c>
-      <c r="G19" s="5">
-        <v>108.55672882792381</v>
-      </c>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1013,12 +893,6 @@
       <c r="E20" s="6">
         <v>2022</v>
       </c>
-      <c r="F20" s="5">
-        <v>-6.5962985999999999</v>
-      </c>
-      <c r="G20" s="5">
-        <v>106.79724210000001</v>
-      </c>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1037,12 +911,6 @@
       <c r="E21" s="6">
         <v>2022</v>
       </c>
-      <c r="F21" s="5">
-        <v>-6.9199289000000004</v>
-      </c>
-      <c r="G21" s="5">
-        <v>106.92650949999999</v>
-      </c>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1061,12 +929,6 @@
       <c r="E22" s="6">
         <v>2022</v>
       </c>
-      <c r="F22" s="5">
-        <v>-6.9215529</v>
-      </c>
-      <c r="G22" s="5">
-        <v>107.6110212</v>
-      </c>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1085,12 +947,6 @@
       <c r="E23" s="6">
         <v>2022</v>
       </c>
-      <c r="F23" s="5">
-        <v>-6.7137044000000001</v>
-      </c>
-      <c r="G23" s="5">
-        <v>108.5608483</v>
-      </c>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1109,12 +965,6 @@
       <c r="E24" s="6">
         <v>2022</v>
       </c>
-      <c r="F24" s="5">
-        <v>-6.2349857999999996</v>
-      </c>
-      <c r="G24" s="5">
-        <v>106.9945444</v>
-      </c>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1133,12 +983,6 @@
       <c r="E25" s="6">
         <v>2022</v>
       </c>
-      <c r="F25" s="5">
-        <v>-6.4071899999999999</v>
-      </c>
-      <c r="G25" s="5">
-        <v>106.8158371</v>
-      </c>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1157,12 +1001,6 @@
       <c r="E26" s="6">
         <v>2022</v>
       </c>
-      <c r="F26" s="5">
-        <v>-6.8731527000000003</v>
-      </c>
-      <c r="G26" s="5">
-        <v>107.54230990000001</v>
-      </c>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1181,12 +1019,6 @@
       <c r="E27" s="6">
         <v>2022</v>
       </c>
-      <c r="F27" s="5">
-        <v>-7.3262483999999999</v>
-      </c>
-      <c r="G27" s="5">
-        <v>108.2201154</v>
-      </c>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1204,12 +1036,6 @@
       </c>
       <c r="E28" s="6">
         <v>2022</v>
-      </c>
-      <c r="F28" s="5">
-        <v>-7.3695648</v>
-      </c>
-      <c r="G28" s="5">
-        <v>108.5415225</v>
       </c>
       <c r="M28" s="1"/>
     </row>

--- a/dataset_project2_new.xlsx
+++ b/dataset_project2_new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\S1 SAINS DATA\FILE PROJECT 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\literasi-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E005CF2-4202-4B53-A661-1D1364019318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B8F2C2-CF9E-45C0-AD3E-C4828F35BC08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{159E56AA-47C3-4E5E-B7CA-F795E0A3D3D7}"/>
   </bookViews>
@@ -33,64 +33,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
-    <t>nama_kabupaten_kota</t>
-  </si>
-  <si>
     <t>indeks_pembangunan_literasi_masyarakat</t>
   </si>
   <si>
-    <t>KABUPATEN BOGOR</t>
-  </si>
-  <si>
-    <t>KABUPATEN SUKABUMI</t>
-  </si>
-  <si>
-    <t>KABUPATEN CIANJUR</t>
-  </si>
-  <si>
-    <t>KABUPATEN BANDUNG</t>
-  </si>
-  <si>
-    <t>KABUPATEN GARUT</t>
-  </si>
-  <si>
-    <t>KABUPATEN TASIKMALAYA</t>
-  </si>
-  <si>
-    <t>KABUPATEN CIAMIS</t>
-  </si>
-  <si>
-    <t>KABUPATEN KUNINGAN</t>
-  </si>
-  <si>
-    <t>KABUPATEN CIREBON</t>
-  </si>
-  <si>
-    <t>KABUPATEN MAJALENGKA</t>
-  </si>
-  <si>
-    <t>KABUPATEN SUMEDANG</t>
-  </si>
-  <si>
-    <t>KABUPATEN INDRAMAYU</t>
-  </si>
-  <si>
-    <t>KABUPATEN SUBANG</t>
-  </si>
-  <si>
-    <t>KABUPATEN PURWAKARTA</t>
-  </si>
-  <si>
-    <t>KABUPATEN KARAWANG</t>
-  </si>
-  <si>
-    <t>KABUPATEN BEKASI</t>
-  </si>
-  <si>
-    <t>KABUPATEN BANDUNG BARAT</t>
-  </si>
-  <si>
-    <t>KABUPATEN PANGANDARAN</t>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>indeks_pendidikan</t>
+  </si>
+  <si>
+    <t>indeks_masyarakat_digital_indonesia</t>
   </si>
   <si>
     <t>KOTA BOGOR</t>
@@ -120,20 +72,68 @@
     <t>KOTA BANJAR</t>
   </si>
   <si>
-    <t>Tahun</t>
-  </si>
-  <si>
-    <t>indeks_pendidikan</t>
-  </si>
-  <si>
-    <t>indeks_masyarakat_digital_indonesia</t>
+    <t>BANDUNG</t>
+  </si>
+  <si>
+    <t>GARUT</t>
+  </si>
+  <si>
+    <t>TASIKMALAYA</t>
+  </si>
+  <si>
+    <t>CIAMIS</t>
+  </si>
+  <si>
+    <t>KUNINGAN</t>
+  </si>
+  <si>
+    <t>CIREBON</t>
+  </si>
+  <si>
+    <t>MAJALENGKA</t>
+  </si>
+  <si>
+    <t>SUMEDANG</t>
+  </si>
+  <si>
+    <t>INDRAMAYU</t>
+  </si>
+  <si>
+    <t>SUBANG</t>
+  </si>
+  <si>
+    <t>PURWAKARTA</t>
+  </si>
+  <si>
+    <t>KARAWANG</t>
+  </si>
+  <si>
+    <t>BEKASI</t>
+  </si>
+  <si>
+    <t>BANDUNG BARAT</t>
+  </si>
+  <si>
+    <t>PANGANDARAN</t>
+  </si>
+  <si>
+    <t>bps_nama</t>
+  </si>
+  <si>
+    <t>BOGOR</t>
+  </si>
+  <si>
+    <t>SUKABUMI</t>
+  </si>
+  <si>
+    <t>CIANJUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +152,19 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -188,10 +201,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -205,9 +219,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8731EBAF-7ABE-4B0A-805C-76CD7CD11596}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,7 +540,7 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection sqref="A1:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,26 +554,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="I1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="5">
         <v>65.7</v>
@@ -571,9 +589,9 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="5">
         <v>50.29</v>
@@ -589,9 +607,9 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B4" s="5">
         <v>52.04</v>
@@ -607,9 +625,9 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="5">
         <v>82.09</v>
@@ -625,9 +643,9 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="5">
         <v>51.1</v>
@@ -643,9 +661,9 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="5">
         <v>54.72</v>
@@ -661,9 +679,9 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="5">
         <v>64.760000000000005</v>
@@ -679,9 +697,9 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="5">
         <v>51.36</v>
@@ -697,9 +715,9 @@
       </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="B10" s="5">
         <v>71.55</v>
@@ -715,9 +733,9 @@
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="5">
         <v>82.99</v>
@@ -733,9 +751,9 @@
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="5">
         <v>48.73</v>
@@ -751,9 +769,9 @@
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="5">
         <v>56.96</v>
@@ -769,9 +787,9 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="5">
         <v>46.33</v>
@@ -787,9 +805,9 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>15</v>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B15" s="5">
         <v>73.540000000000006</v>
@@ -805,9 +823,9 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>16</v>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B16" s="5">
         <v>75.8</v>
@@ -823,9 +841,9 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>17</v>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="B17" s="5">
         <v>70.11</v>
@@ -841,9 +859,9 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>18</v>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="5">
         <v>73.099999999999994</v>
@@ -859,9 +877,9 @@
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>19</v>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B19" s="5">
         <v>65.41</v>
@@ -877,9 +895,9 @@
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>20</v>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B20" s="5">
         <v>95.34</v>
@@ -895,9 +913,9 @@
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>21</v>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="B21" s="5">
         <v>96.85</v>
@@ -913,9 +931,9 @@
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>22</v>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="B22" s="5">
         <v>95.65</v>
@@ -931,9 +949,9 @@
       </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>23</v>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="B23" s="5">
         <v>92.62</v>
@@ -949,9 +967,9 @@
       </c>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>24</v>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="B24" s="5">
         <v>80.88</v>
@@ -967,9 +985,9 @@
       </c>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>25</v>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B25" s="5">
         <v>98.92</v>
@@ -985,9 +1003,9 @@
       </c>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>26</v>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="B26" s="5">
         <v>98.83</v>
@@ -1003,9 +1021,9 @@
       </c>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>27</v>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B27" s="5">
         <v>79.680000000000007</v>
@@ -1021,9 +1039,9 @@
       </c>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>28</v>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B28" s="5">
         <v>88.35</v>
